--- a/biology/Botanique/Guibourtia_coleosperma/Guibourtia_coleosperma.xlsx
+++ b/biology/Botanique/Guibourtia_coleosperma/Guibourtia_coleosperma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guibourtia coleosperma est une espèce de plantes dicotylédones de la famille des Fabaceae. C'est un arbre originaire d'Afrique.
 Les proguibourtinidines sont un type de tanins condensés qui peuvent être trouvés dans Guibourtia coleosperma.
